--- a/3_Data Visualization and Dashboards with Excel and Cognos/w2_CreatingVisualizationsAndDashboardwithSpreadsheet/Car_Sales_Kaggle_DV0130EN_Lab3_Start.xlsx
+++ b/3_Data Visualization and Dashboards with Excel and Cognos/w2_CreatingVisualizationsAndDashboardwithSpreadsheet/Car_Sales_Kaggle_DV0130EN_Lab3_Start.xlsx
@@ -1,36 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandipsahajoy/gitlab/IBMDeveloperSkillsNetwork-DV0130EN-SkillsNetwork/Hands-on Labs/Lab 3 - Creating a Simple Dashboard with Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheldonnnn/Documents/一些学习笔记/IBMDA/3_Data Visualization and Dashboards with Excel and Cognos/w2_CreatingVisualizationsAndDashboardwithSpreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA078A1-7C9E-014E-9363-B726D6FCEACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2FD6B1-7899-F546-B458-9D03E8BB578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1120" windowWidth="29220" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Car_sales" sheetId="1" r:id="rId1"/>
     <sheet name="Bar Chart" sheetId="2" r:id="rId2"/>
     <sheet name="Column, Pie, Sunburst Chart" sheetId="3" r:id="rId3"/>
+    <sheet name="dashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Column, Pie, Sunburst Chart'!$B$2:$B$156</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Column, Pie, Sunburst Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Column, Pie, Sunburst Chart'!$B$2:$B$156</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Column, Pie, Sunburst Chart'!$C$2:$C$156</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Column, Pie, Sunburst Chart'!$B$2:$B$156</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Column, Pie, Sunburst Chart'!$C$2:$C$156</definedName>
     <definedName name="Slicer_Manufacturer">#N/A</definedName>
     <definedName name="Slicer_Model">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -38,7 +43,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -76,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="209">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -1221,7 +1226,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="21" applyFont="1"/>
@@ -1237,7 +1242,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1284,12 +1288,396 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="42" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="176">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2166,7 +2554,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2229,7 +2617,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="inEnd"/>
@@ -2290,7 +2678,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CN"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="inEnd"/>
@@ -2367,7 +2755,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2399,41 +2787,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$8</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Acura</c:v>
+                  <c:v>Audi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Audi</c:v>
+                  <c:v>BMW</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BMW</c:v>
+                  <c:v>Mercedes-B</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Buick</c:v>
+                  <c:v>Porsche</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Volkswagen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$B$4:$B$8</c:f>
+              <c:f>'Bar Chart'!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21986.666666666668</c:v>
+                  <c:v>28270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28270</c:v>
+                  <c:v>29766.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29766.666666666668</c:v>
+                  <c:v>39876.555555555555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14941.25</c:v>
+                  <c:v>56475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13951.833333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,7 +2893,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2531,41 +2925,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$8</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Acura</c:v>
+                  <c:v>Audi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Audi</c:v>
+                  <c:v>BMW</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BMW</c:v>
+                  <c:v>Mercedes-B</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Buick</c:v>
+                  <c:v>Porsche</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Volkswagen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$C$4:$C$8</c:f>
+              <c:f>'Bar Chart'!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30633.333333333332</c:v>
+                  <c:v>39980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39980</c:v>
+                  <c:v>33096.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33096.666666666664</c:v>
+                  <c:v>52916.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26781.25</c:v>
+                  <c:v>62473.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17698.333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2630,7 +3030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377539464"/>
@@ -2701,7 +3101,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377535720"/>
@@ -2748,7 +3148,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2794,7 +3194,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2820,7 +3220,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2857,7 +3257,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2954,7 +3354,7 @@
             <c:strRef>
               <c:f>'Column, Pie, Sunburst Chart'!$B$2:$B$156</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4Runner</c:v>
                 </c:pt>
@@ -2967,6 +3367,21 @@
                 <c:pt idx="3">
                   <c:v>Celica</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -2975,7 +3390,7 @@
               <c:f>'Column, Pie, Sunburst Chart'!$M$2:$M$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>62.35557713</c:v>
                 </c:pt>
@@ -2987,6 +3402,21 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56.496030339999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.96897242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.5289842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.955108869999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.027219470000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.297116580000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,7 +3482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1120417536"/>
@@ -3111,7 +3541,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1120321872"/>
@@ -3175,7 +3605,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3189,7 +3619,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3226,7 +3656,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3438,6 +3868,72 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:pattFill prst="pct75">
@@ -3481,7 +3977,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3513,7 +4009,7 @@
             <c:strRef>
               <c:f>'Column, Pie, Sunburst Chart'!$B$2:$B$156</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4Runner</c:v>
                 </c:pt>
@@ -3526,6 +4022,21 @@
                 <c:pt idx="3">
                   <c:v>Celica</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3534,7 +4045,7 @@
               <c:f>'Column, Pie, Sunburst Chart'!$F$2:$F$156</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.87154522613065322</c:v>
                 </c:pt>
@@ -3546,6 +4057,21 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.91525925925925922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76480012206286241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65883080729972165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78902179062055899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83552396280400576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83058639833448988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3607,7 +4133,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3660,7 +4186,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3668,6 +4194,1924 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column, Pie, Sunburst Chart'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power Perf Factor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Column, Pie, Sunburst Chart'!$B$2:$B$156</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4Runner</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avalon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Celica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column, Pie, Sunburst Chart'!$M$2:$M$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>62.35557713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.911898260000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.372419649999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.496030339999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.96897242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.5289842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.955108869999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.027219470000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.297116580000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5BD-A343-9BD8-E38438FC28EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="1120321872"/>
+        <c:axId val="1120417536"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1120321872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1120417536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1120417536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1120321872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Price and Year Resale Value of German Car Models</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column, Pie, Sunburst Chart'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Retention %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3F92-6549-BE2C-77718DC12B42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3F92-6549-BE2C-77718DC12B42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3F92-6549-BE2C-77718DC12B42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3F92-6549-BE2C-77718DC12B42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3F92-6549-BE2C-77718DC12B42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3F92-6549-BE2C-77718DC12B42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Column, Pie, Sunburst Chart'!$B$2:$B$156</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4Runner</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avalon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Celica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column, Pie, Sunburst Chart'!$F$2:$F$156</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.87154522613065322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71011939714229788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75607946112569924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91525925925925922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76480012206286241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65883080729972165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78902179062055899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83552396280400576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83058639833448988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3F92-6549-BE2C-77718DC12B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Car_Sales_Kaggle_DV0130EN_Lab3_Start.xlsx]Bar Chart!PivotTable4</c:name>
+    <c:fmtId val="16"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bar Chart'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Year Resale Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Audi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BMW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mercedes-B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Porsche</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Volkswagen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29766.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39876.555555555555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13951.833333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-665A-AD44-9C02-A97E0B620CA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bar Chart'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Audi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BMW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mercedes-B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Porsche</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Volkswagen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33096.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52916.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62473.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17698.333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-665A-AD44-9C02-A97E0B620CA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="1377535720"/>
+        <c:axId val="1377539464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377535720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377539464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377539464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377535720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -3680,6 +6124,63 @@
       </cx:strDim>
       <cx:numDim type="size">
         <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unit Sales</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:endParaRPr lang="en-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{BA67920D-01B5-344D-988F-2033EFE5936B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>Unit Sales</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3849,6 +6350,166 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6173,6 +8834,2291 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="383">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6298,13 +11244,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>930275</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -6484,7 +11430,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-GB" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -6532,6 +11478,371 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458A769D-78D8-E243-B8A0-ED7FE8BF7EFE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F201C03C-A1A2-FF46-BE4D-8B391F354697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1E7541-7947-8B41-88F6-D81D98B01FE2}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{71B7AA35-EA38-764D-A229-E35761591BFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4749800" y="3070225"/>
+              <a:ext cx="4762500" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F399AFF-47EE-CA44-9005-669BB03F766C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB3583C9-9018-1F41-9B0A-2736C6E10D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Model 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B86FF91-0271-7D47-8F9A-4964902EB5F4}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8C5B39EE-975E-4641-AD21-D5AB751FDFD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Model 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9525000" y="3060700"/>
+              <a:ext cx="2082800" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can’t be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B216B29F-BB82-154E-8A71-7F482442781D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>415924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Manufacturer 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616EAC32-C1AA-DD44-B74B-A4DAEFDF57BD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Manufacturer 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5368924" y="0"/>
+              <a:ext cx="1489076" cy="3060700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10372,8 +15683,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{191ED8E3-C620-497D-9A41-5CFFDA72B39C}" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{191ED8E3-C620-497D-9A41-5CFFDA72B39C}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0">
       <items count="155">
@@ -10536,10 +15847,10 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="31">
-        <item sd="0" x="0"/>
+        <item h="1" sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
+        <item h="1" sd="0" x="3"/>
         <item h="1" sd="0" x="4"/>
         <item h="1" sd="0" x="5"/>
         <item h="1" sd="0" x="6"/>
@@ -10552,19 +15863,19 @@
         <item h="1" sd="0" x="13"/>
         <item h="1" sd="0" x="14"/>
         <item h="1" sd="0" x="15"/>
-        <item h="1" sd="0" x="18"/>
+        <item sd="0" x="18"/>
         <item h="1" sd="0" x="17"/>
         <item h="1" sd="0" x="16"/>
         <item h="1" sd="0" x="19"/>
         <item h="1" sd="0" x="20"/>
         <item h="1" sd="0" x="21"/>
         <item h="1" sd="0" x="22"/>
-        <item h="1" sd="0" x="23"/>
+        <item sd="0" x="23"/>
         <item h="1" sd="0" x="24"/>
         <item h="1" sd="0" x="25"/>
         <item h="1" sd="0" x="26"/>
         <item h="1" x="27"/>
-        <item h="1" sd="0" x="28"/>
+        <item sd="0" x="28"/>
         <item h="1" sd="0" x="29"/>
         <item t="default" sd="0"/>
       </items>
@@ -10913,10 +16224,7 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="1"/>
     </i>
@@ -10924,7 +16232,13 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="28"/>
     </i>
     <i t="grand">
       <x/>
@@ -10946,7 +16260,7 @@
     <dataField name="Average of Price" fld="4" subtotal="average" baseField="0" baseItem="78" numFmtId="167"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="25">
+    <format dxfId="153">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10955,7 +16269,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10964,7 +16278,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="151">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10973,7 +16287,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10983,7 +16297,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="12">
+  <chartFormats count="16">
     <chartFormat chart="6" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11092,6 +16406,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="15" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -11113,10 +16463,10 @@
   <data>
     <tabular pivotCacheId="1595889648">
       <items count="30">
-        <i x="0" s="1"/>
+        <i x="0"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="3" s="1"/>
+        <i x="3"/>
         <i x="4"/>
         <i x="5"/>
         <i x="6"/>
@@ -11129,19 +16479,19 @@
         <i x="13"/>
         <i x="14"/>
         <i x="15"/>
-        <i x="18"/>
+        <i x="18" s="1"/>
         <i x="17"/>
         <i x="16"/>
         <i x="19"/>
         <i x="20"/>
         <i x="21"/>
         <i x="22"/>
-        <i x="23"/>
+        <i x="23" s="1"/>
         <i x="24"/>
         <i x="25"/>
         <i x="26"/>
         <i x="27"/>
-        <i x="28"/>
+        <i x="28" s="1"/>
         <i x="29"/>
       </items>
     </tabular>
@@ -11171,54 +16521,59 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Manufacturer 1" xr10:uid="{5220FF87-9624-7146-A942-FF7102AA1881}" cache="Slicer_Manufacturer" caption="Manufacturer" startItem="20" style="SlicerStyleLight3" rowHeight="230716"/>
+  <slicer name="Manufacturer 2" xr10:uid="{D6B15FFE-5658-C34D-9417-7B887C06B39F}" cache="Slicer_Manufacturer" caption="Manufacturer" style="SlicerStyleLight3" rowHeight="230716"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Model 1" xr10:uid="{DF0271FE-6CF6-2E43-9ED9-7345EDE0EC4C}" cache="Slicer_Model" caption="Model" style="SlicerStyleLight3" rowHeight="230716"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="45" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="173" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="44" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="43" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="39" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="172" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="171" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="170"/>
+    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="169"/>
+    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="168"/>
+    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="167">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="38" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="166">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="35">
+    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="165"/>
+    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="164"/>
+    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="163">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="33"/>
-    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="162"/>
+    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="161"/>
+    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="160"/>
+    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="159"/>
+    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="158"/>
+    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="157"/>
+    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="156"/>
+    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="155"/>
+    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="19" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="147" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}">
     <filterColumn colId="0">
       <filters>
         <filter val="Toyota"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="4Runner"/>
-        <filter val="Avalon"/>
-        <filter val="Camry"/>
-        <filter val="Celica"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -11226,31 +16581,31 @@
     <sortCondition ref="B1:B156"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="18" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="17" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="146" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="145" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="144"/>
+    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="142"/>
+    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="141">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="140">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="138"/>
+    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="137">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="136"/>
+    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="135"/>
+    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="134"/>
+    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="133"/>
+    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="132"/>
+    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="131"/>
+    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="130"/>
+    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="129"/>
+    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11555,7 +16910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -12899,9 +18254,6 @@
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -21278,12 +26630,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="175" priority="5" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="POOR">
+    <cfRule type="containsText" dxfId="174" priority="3" operator="containsText" text="POOR">
       <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21306,8 +26658,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
@@ -21318,74 +26670,81 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="18">
-        <v>21986.666666666668</v>
-      </c>
-      <c r="C4" s="18">
-        <v>30633.333333333332</v>
+      <c r="A4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="17">
+        <v>28270</v>
+      </c>
+      <c r="C4" s="17">
+        <v>39980</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="18">
-        <v>28270</v>
-      </c>
-      <c r="C5" s="18">
-        <v>39980</v>
+      <c r="A5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="17">
+        <v>29766.666666666668</v>
+      </c>
+      <c r="C5" s="17">
+        <v>33096.666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="18">
-        <v>29766.666666666668</v>
-      </c>
-      <c r="C6" s="18">
-        <v>33096.666666666664</v>
+      <c r="A6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="17">
+        <v>39876.555555555555</v>
+      </c>
+      <c r="C6" s="17">
+        <v>52916.666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="18">
-        <v>14941.25</v>
-      </c>
-      <c r="C7" s="18">
-        <v>26781.25</v>
+      <c r="A7" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="17">
+        <v>56475</v>
+      </c>
+      <c r="C7" s="17">
+        <v>62473.333333333336</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="18">
-        <v>23064.23076923077</v>
-      </c>
-      <c r="C8" s="18">
-        <v>32173.461538461539</v>
+      <c r="A8" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="17">
+        <v>13951.833333333334</v>
+      </c>
+      <c r="C8" s="17">
+        <v>17698.333333333332</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="C9"/>
+      <c r="A9" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="17">
+        <v>32755.625</v>
+      </c>
+      <c r="C9" s="17">
+        <v>41212.083333333336</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10"/>
@@ -22884,9 +28243,6 @@
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -30207,7 +35563,7 @@
         <v>41272</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>181</v>
       </c>
@@ -30269,7 +35625,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>181</v>
       </c>
@@ -30331,7 +35687,7 @@
         <v>40811</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>181</v>
       </c>
@@ -30393,7 +35749,7 @@
         <v>40669</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>181</v>
       </c>
@@ -30455,7 +35811,7 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>181</v>
       </c>
@@ -31263,12 +36619,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="149" priority="2" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="POOR">
+    <cfRule type="containsText" dxfId="148" priority="1" operator="containsText" text="POOR">
       <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31286,4 +36642,31 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25492D11-C3FF-E748-8A89-624CC14F759C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>